--- a/RYP data/ryp_student_database_300hr.xlsx
+++ b/RYP data/ryp_student_database_300hr.xlsx
@@ -2435,17 +2435,25 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3200</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>No</t>
@@ -2458,7 +2466,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>hold until 31.10. check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">

--- a/RYP data/ryp_student_database_300hr.xlsx
+++ b/RYP data/ryp_student_database_300hr.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -706,10 +706,14 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -723,46 +727,26 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -798,7 +782,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -806,20 +790,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -840,13 +820,13 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -856,28 +836,24 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>24-Oct-2024</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>hold until 23 Oct</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -907,7 +883,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -917,18 +893,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+          <t>lunaclarysse14@gmail.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -949,7 +925,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -965,32 +941,28 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>6-Oct</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>hold until 23 Oct</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1020,7 +992,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1028,11 +1000,15 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1058,18 +1034,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1079,17 +1055,25 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
@@ -1121,7 +1105,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1139,7 +1123,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1166,7 +1150,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1176,17 +1160,25 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1-Aug-2024</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
@@ -1218,7 +1210,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1228,7 +1220,11 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1258,12 +1254,12 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1273,25 +1269,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>20-Sep-2024</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1323,7 +1311,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1333,7 +1321,11 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1341,13 +1333,13 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1368,29 +1360,33 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>22-Aug-2024</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -1420,28 +1416,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1450,7 +1438,11 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1458,7 +1450,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1469,26 +1461,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
           <t>No</t>
@@ -1525,7 +1513,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1535,11 +1523,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>stephanie_koessler@icloud.com</t>
+          <t>myhaela.covacy180@gmail.com</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1547,15 +1539,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1574,41 +1562,33 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>554.18</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>24-Sep-2024</t>
-        </is>
-      </c>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2645.82</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1638,7 +1618,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tatiana D Rodionova</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1648,19 +1628,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>rodionovatd@gmail.com</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(631) 704-7112</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+          <t>stephanie_koessler@icloud.com</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1700,26 +1672,34 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>554.18</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>24-Sep-2024</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr"/>
+          <t>2645.82</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>hold. 24.10</t>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1864,21 +1844,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1913,7 +1889,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1923,23 +1899,19 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>

--- a/RYP data/ryp_student_database_300hr.xlsx
+++ b/RYP data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,40 +692,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>RYP</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
+          <t>Aamiya Vyas</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>aamiyavyas@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -777,12 +761,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -791,10 +775,14 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -808,46 +796,26 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -878,12 +846,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -891,20 +859,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -925,13 +889,13 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -941,28 +905,24 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>24-Oct-2024</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>hold until 23 Oct</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -987,12 +947,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1002,18 +962,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+          <t>lunaclarysse14@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1034,7 +994,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1050,32 +1010,28 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>6-Oct</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>hold until 23 Oct</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1100,12 +1056,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1115,7 +1071,11 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1145,12 +1105,12 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1160,25 +1120,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>20-Sep-2024</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
@@ -1205,12 +1157,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1220,11 +1172,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1254,12 +1202,12 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1269,17 +1217,25 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1306,24 +1262,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1333,7 +1293,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1349,7 +1309,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1360,7 +1320,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1370,23 +1330,27 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -1411,12 +1375,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1426,7 +1390,11 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1434,13 +1402,13 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1461,29 +1429,33 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>22-Aug-2024</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -1508,33 +1480,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1543,7 +1507,11 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1551,7 +1519,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1562,26 +1530,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
           <t>No</t>
@@ -1613,12 +1577,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1628,11 +1592,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>stephanie_koessler@icloud.com</t>
+          <t>myhaela.covacy180@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1640,15 +1608,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1667,41 +1631,33 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>554.18</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>24-Sep-2024</t>
-        </is>
-      </c>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2645.82</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1726,12 +1682,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sasha Norman</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1741,19 +1697,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>sash.norman@yahoo.com</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>12693669440</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+          <t>stephanie_koessler@icloud.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1777,7 +1725,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1793,28 +1741,36 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>553.92</t>
+          <t>554.18</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>24-Sep-2024</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2646.08</t>
+          <t>2645.82</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
           <t>1</t>
@@ -1839,12 +1795,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t>Sasha Norman</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1852,12 +1808,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sash.norman@yahoo.com</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12693669440</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1878,7 +1846,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1894,21 +1862,25 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>553.92</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1-Aug-2024</t>
+          <t>13-Sep-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
+          <t>2646.08</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1926,22 +1898,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1975,7 +1947,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1986,7 +1958,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1996,35 +1968,27 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Mustard allergy</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2005,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Luidmila</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2054,33 +2018,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2099,39 +2055,35 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>11 Oct 2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>moved from Oct 2024</t>
+          <t>Mustard allergy</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2158,42 +2110,46 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2201,44 +2157,52 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>moved from Oct 2024</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>2</t>
@@ -2263,22 +2227,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2290,13 +2258,25 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2311,7 +2291,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2321,7 +2301,11 @@
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
@@ -2348,12 +2332,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Ramona (Samin Yoga)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2361,20 +2345,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2384,16 +2360,8 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instagram </t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2402,51 +2370,152 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Qian</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>2645</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>PayPal</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>Vegan/Dairy Free and Gluten Free</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>April 12, 2025 to May 10, 2025</t>
         </is>

--- a/RYP data/ryp_student_database_300hr.xlsx
+++ b/RYP data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -700,25 +700,57 @@
           <t>Aamiya Vyas</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>aamiyavyas@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -734,9 +766,17 @@
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>hold 10.11</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -761,7 +801,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -846,7 +886,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -947,12 +987,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -960,20 +1000,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -994,44 +1030,40 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>20-Sep-2024</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>hold until 23 Oct</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1056,12 +1088,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1071,11 +1103,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1105,12 +1133,12 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1120,17 +1148,25 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
@@ -1157,12 +1193,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1170,9 +1206,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1196,7 +1240,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1217,7 +1261,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1262,28 +1306,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1293,7 +1333,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1309,7 +1349,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1320,7 +1360,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1330,27 +1370,23 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>6-Oct</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -1375,12 +1411,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1390,11 +1426,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1402,13 +1434,13 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1429,33 +1461,29 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>22-Aug-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -1480,25 +1508,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>myhaela.covacy180@gmail.com</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1507,11 +1543,7 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1519,7 +1551,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1530,22 +1562,26 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>No</t>
@@ -1577,12 +1613,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1592,15 +1628,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>myhaela.covacy180@gmail.com</t>
+          <t>stephanie_koessler@icloud.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1608,11 +1640,15 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1631,33 +1667,41 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>554.18</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>24-Sep-2024</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2645.82</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1682,12 +1726,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Sasha Norman</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1697,11 +1741,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>stephanie_koessler@icloud.com</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>sash.norman@yahoo.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12693669440</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1725,7 +1777,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1741,36 +1793,28 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>554.18</t>
+          <t>553.92</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>24-Sep-2024</t>
+          <t>13-Sep-2024</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2645.82</t>
+          <t>2646.08</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>1</t>
@@ -1795,12 +1839,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sasha Norman</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1808,24 +1852,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sash.norman@yahoo.com</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12693669440</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1846,7 +1878,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1862,25 +1894,21 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>553.92</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2646.08</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1898,22 +1926,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>February 17, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>March 17, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1935,11 +1963,7 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1947,7 +1971,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1968,7 +1992,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1-Aug-2024</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1977,18 +2001,26 @@
           <t>2800</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2 extra day - before and after @ $90</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>February 17, 2025 to March 17, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2037,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2018,25 +2050,33 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2055,35 +2095,39 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Mustard allergy</t>
+          <t>moved from Oct 2024</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2110,46 +2154,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2157,52 +2197,44 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>2</t>
@@ -2227,26 +2259,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Ramona (Samin Yoga)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2258,30 +2286,18 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2291,21 +2307,17 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
@@ -2332,12 +2344,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Luidmila</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2359,9 +2371,21 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2370,7 +2394,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2380,19 +2404,27 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>11 Oct 2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
           <t>2</t>
@@ -2518,6 +2550,99 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>November 14, 2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Monica Julieth Castillo Ruiz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>castleika.7@gmail.com</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5167650499</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>November 14, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
